--- a/com/sca/hem4/fixtures/input/faclist.xlsx
+++ b/com/sca/hem4/fixtures/input/faclist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris Stolte\IdeaProjects\HEM\fixtures\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_HEM4\HEM4\com\sca\hem4\fixtures\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C6D396-7088-41D8-8FBA-02E282F51940}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E8AB39-ECE8-428B-AB42-BFDC272C0218}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="588" windowWidth="20640" windowHeight="11772" xr2:uid="{6DACADE6-3D82-4463-B55D-EC7754581E6D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6DACADE6-3D82-4463-B55D-EC7754581E6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>FacilityID</t>
   </si>
@@ -51,9 +51,6 @@
     <t>overlap_dist</t>
   </si>
   <si>
-    <t>acute</t>
-  </si>
-  <si>
     <t>hours</t>
   </si>
   <si>
@@ -108,17 +105,29 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Extra header</t>
-  </si>
-  <si>
-    <t>Input category</t>
+    <t>Dispersion</t>
+  </si>
+  <si>
+    <t>Modeling Domain Defined</t>
+  </si>
+  <si>
+    <t>Acute Options</t>
+  </si>
+  <si>
+    <t>Deposition and Depletion Parameters</t>
+  </si>
+  <si>
+    <t>Additional Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">acute  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,16 +140,36 @@
       <name val="MS Sans Serif"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,16 +177,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29DDF97E-B161-4714-9981-9B6FC4EE0D5E}">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -485,12 +543,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7" t="s">
         <v>28</v>
       </c>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -518,16 +605,16 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>12</v>
@@ -550,28 +637,28 @@
       <c r="S2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -584,13 +671,11 @@
       <c r="H3" s="3">
         <v>30</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="3"/>
       <c r="L3" s="3">
         <v>1.2</v>
       </c>
@@ -603,16 +688,22 @@
       <c r="S3" s="2"/>
       <c r="T3" s="2"/>
       <c r="U3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:S1"/>
+    <mergeCell ref="T1:Y1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>